--- a/scripts/09_mosiacism_analysis/mut_from_mut_vs_wt_from_wt/GLUT_P60_rrvgo_enrichr.xlsx
+++ b/scripts/09_mosiacism_analysis/mut_from_mut_vs_wt_from_wt/GLUT_P60_rrvgo_enrichr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t xml:space="preserve">Gene Ontology</t>
   </si>
@@ -26,328 +26,352 @@
     <t xml:space="preserve">Biological Process</t>
   </si>
   <si>
-    <t xml:space="preserve">respiratory electron transport chain</t>
+    <t xml:space="preserve">mitochondrial ATP synthesis coupled electron transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclear-transcribed mRNA catabolic process, nonsense-mediated decay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cellular Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial inner membrane</t>
   </si>
   <si>
     <t xml:space="preserve">Molecular Function</t>
   </si>
   <si>
-    <t xml:space="preserve">NADH dehydrogenase (quinone) activity</t>
+    <t xml:space="preserve">NADH dehydrogenase (ubiquinone) activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein targeting to ER</t>
   </si>
   <si>
     <t xml:space="preserve">RNA binding</t>
   </si>
   <si>
-    <t xml:space="preserve">Cellular Component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial respiratory chain complex I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NADH dehydrogenase complex assembly</t>
+    <t xml:space="preserve">translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytosolic ribosome</t>
   </si>
   <si>
     <t xml:space="preserve">mitochondrial respiratory chain complex assembly</t>
   </si>
   <si>
+    <t xml:space="preserve">mitochondrial respiratory chain complex I assembly</t>
+  </si>
+  <si>
     <t xml:space="preserve">viral process</t>
   </si>
   <si>
-    <t xml:space="preserve">lytic vacuole membrane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tRNA splicing, via endonucleolytic cleavage and ligation</t>
+    <t xml:space="preserve">rRNA processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cadherin binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gene expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">central nervous system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPII vesicle coating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vesicle coating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein modification by small protein removal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lysosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein stabilization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">focal adhesion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polysome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of ERAD pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcription coactivator activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heparan sulfate proteoglycan metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golgi apparatus subcompartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitochondrial matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interleukin-1-mediated signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA polymerase II, holoenzyme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platelet-derived growth factor receptor signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoprotein phosphatase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neurotransmitter receptor activity involved in regulation of postsynaptic membrane potential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spermidine metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of apoptotic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative chemotaxis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modulation of chemical synaptic transmission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of axon extension involved in axon guidance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuron projection development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of developmental process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recycling endosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein dephosphorylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post-translational protein modification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATPase regulator activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRNA splicing, via spliceosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cortical cytoskeleton organization</t>
   </si>
   <si>
     <t xml:space="preserve">perinuclear region of cytoplasm</t>
   </si>
   <si>
-    <t xml:space="preserve">transcription by RNA polymerase II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">axon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of neurogenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">interleukin-1-mediated signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endoplasmic reticulum to Golgi vesicle-mediated transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neuron projection development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of canonical Wnt signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4/U6 x U5 tri-snRNP complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuclear-transcribed mRNA catabolic process, deadenylation-independent decay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytoplasmic dynein complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitochondrial transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">post-translational protein modification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of apoptotic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cyclic nucleotide catabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">macroautophagy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plasma membrane bounded cell projection organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snRNA transcription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cadherin binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">central nervous system development</t>
+    <t xml:space="preserve">ubiquitin protein ligase binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'de novo' post-translational protein folding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cholesterol biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of lamellipodium organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of cellular catabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integral component of mitochondrial membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cell cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of primary metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiquitin-like protein peptidase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of cellular component organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oxoacid metabolic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESC/E(Z) complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular response to nutrient levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuropilin binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NURF complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of intracellular signal transduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epithelial tube morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sodium ion import across plasma membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of establishment of cell polarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitory extracellular ligand-gated ion channel activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of actin filament depolymerization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prenyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peptide alpha-N-acetyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">platelet-derived growth factor binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sulfur compound biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ubiquitin binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dendrite membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cholesterol biosynthetic process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in utero embryonic development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cortical actin cytoskeleton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endoplasmic reticulum-Golgi intermediate compartment membrane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ventricular septum morphogenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hepaticobiliary system development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sialyltransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mRNA polyadenylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta-tubulin binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hsp70 protein binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein homodimerization activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ribosome binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA helicase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of T cell cytokine production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ribonucleoprotein granule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neural crest cell migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuclear localization sequence binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyaluronic acid binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">receptor recycling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acidic amino acid transport</t>
   </si>
   <si>
     <t xml:space="preserve">cell-cell adhesion mediated by cadherin</t>
   </si>
   <si>
-    <t xml:space="preserve">Cajal body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of cellular process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cellular response to heat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of amino acid transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA-templated transcription termination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ribonucleoside triphosphate phosphatase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of cell cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cellular response to starvation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of transcription from RNA polymerase II promoter in response to stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytosolic ribosome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of primary metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">focal adhesion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cytoplasmic ribonucleoprotein granule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of axon extension involved in axon guidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heparan sulfate proteoglycan metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">substrate-dependent cell migration, cell extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spermidine metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative chemotaxis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transmembrane receptor protein tyrosine kinase signaling pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trans-Golgi network membrane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mRNA polyadenylation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell-cell junction assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcription-coupled nucleotide-excision repair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">catenin complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">channel activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">succinate metabolic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clathrin-sculpted gamma-aminobutyric acid transport vesicle membrane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein localization to nucleus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autophagosome maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of establishment of planar polarity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA polymerase II, holoenzyme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">endoplasmic reticulum calcium ion homeostasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">semaphorin receptor binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">translation initiation factor activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chaperone cofactor-dependent protein refolding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein homodimerization activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATPase regulator activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of intracellular signal transduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of stem cell differentiation</t>
+    <t xml:space="preserve">cellular response to catecholamine stimulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cellular response to hypoxia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purine ribonucleoside triphosphate binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein serine/threonine kinase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intraciliary transport involved in cilium assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lysosome localization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulation of fibroblast proliferation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heparan sulfate sulfotransferase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cytoplasmic pattern recognition receptor signaling pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive regulation of multicellular organismal process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">syntaxin binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of cell activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-terminal peptidyl-methionine acetylation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma-secretase complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyubiquitin modification-dependent protein binding</t>
   </si>
   <si>
     <t xml:space="preserve">RNA polymerase II complex binding</t>
   </si>
   <si>
-    <t xml:space="preserve">energy coupled proton transmembrane transport, against electrochemical gradient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta-tubulin binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basal RNA polymerase II transcription machinery binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hepaticobiliary system development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sialyltransferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sterol biosynthetic process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein sulfation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">negative regulation of erythrocyte differentiation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intermediate filament bundle assembly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NuRD complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein methyltransferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein-containing complex localization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response to axon injury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platelet-derived growth factor binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of ATP-dependent activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of establishment or maintenance of cell polarity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positive regulation of ion transmembrane transporter activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polyubiquitin modification-dependent protein binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cAMP binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outer mitochondrial membrane organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDP-alcohol phosphatidyltransferase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fatty acid elongase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcription coactivator activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in utero embryonic development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chaperonin-containing T-complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABA-A receptor complex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GABA-A receptor activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nose development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hsp70 protein binding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">helicase activity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">antigen processing and presentation of exogenous peptide antigen via MHC class II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cell division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nucleic acid phosphodiester bond hydrolysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulation of cell communication by electrical coupling involved in cardiac conduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">armadillo repeat domain binding</t>
+    <t xml:space="preserve">SH2 domain binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative regulation of defense response to virus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microtubule severing ATPase activity</t>
   </si>
 </sst>
 </file>
@@ -698,29 +722,29 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>10.0077262195104</v>
+        <v>12.9170931660605</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="n">
-        <v>8.37092794483482</v>
+        <v>12.4077216554007</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>6.93986560201528</v>
+        <v>11.2118072004903</v>
       </c>
     </row>
     <row r="5">
@@ -731,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>6.91971425042587</v>
+        <v>10.992374371948</v>
       </c>
     </row>
     <row r="6">
@@ -742,18 +766,18 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>6.48743123511716</v>
+        <v>10.7677662113259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>5.92595700760767</v>
+        <v>9.689916941208</v>
       </c>
     </row>
     <row r="8">
@@ -764,18 +788,18 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>4.82104736006735</v>
+        <v>9.61439093747463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>4.21176592862261</v>
+        <v>9.46090203435255</v>
       </c>
     </row>
     <row r="10">
@@ -786,18 +810,18 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>4.08891486888296</v>
+        <v>9.4583572400408</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>4.01770637606308</v>
+        <v>9.42722308809706</v>
       </c>
     </row>
     <row r="12">
@@ -808,29 +832,29 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>3.75251927171298</v>
+        <v>8.41127443767331</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>3.72244130141907</v>
+        <v>7.70611878034138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>3.60492601358033</v>
+        <v>6.70719885416996</v>
       </c>
     </row>
     <row r="15">
@@ -841,7 +865,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>3.59344288205456</v>
+        <v>6.62740015695122</v>
       </c>
     </row>
     <row r="16">
@@ -852,7 +876,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>3.58404918059984</v>
+        <v>6.58836393531923</v>
       </c>
     </row>
     <row r="17">
@@ -863,7 +887,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>3.50218821006482</v>
+        <v>5.52297966198034</v>
       </c>
     </row>
     <row r="18">
@@ -874,62 +898,62 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>3.45728083792715</v>
+        <v>5.52297966198034</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>3.43981999560567</v>
+        <v>5.30866380071093</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>3.42713517737717</v>
+        <v>5.03311400074253</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>3.30319693410661</v>
+        <v>4.88629892605769</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>3.28573203803107</v>
+        <v>4.60469681302504</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>3.15997771178701</v>
+        <v>4.38457957781665</v>
       </c>
     </row>
     <row r="24">
@@ -940,7 +964,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>3.1284544619398</v>
+        <v>4.10811117272417</v>
       </c>
     </row>
     <row r="25">
@@ -951,18 +975,18 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>3.11121954237749</v>
+        <v>3.63203629947395</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>3.0978849564017</v>
+        <v>3.61168816724837</v>
       </c>
     </row>
     <row r="27">
@@ -973,51 +997,51 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>3.04966028024341</v>
+        <v>3.52060732381671</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>3.04135053120537</v>
+        <v>3.50264248895208</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>3.02691659774965</v>
+        <v>3.45175067281875</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>3.00546031383423</v>
+        <v>3.39004156053219</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>3.00107570188743</v>
+        <v>3.35030390069329</v>
       </c>
     </row>
     <row r="32">
@@ -1028,7 +1052,7 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>2.99798486700986</v>
+        <v>3.34266286874859</v>
       </c>
     </row>
     <row r="33">
@@ -1039,18 +1063,18 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>2.9680431082654</v>
+        <v>3.33481876915818</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>2.95518578163393</v>
+        <v>3.32764347220288</v>
       </c>
     </row>
     <row r="35">
@@ -1061,7 +1085,7 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>2.94786753686839</v>
+        <v>3.32004231317259</v>
       </c>
     </row>
     <row r="36">
@@ -1072,7 +1096,7 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>2.94622860045268</v>
+        <v>3.26686639802218</v>
       </c>
     </row>
     <row r="37">
@@ -1083,18 +1107,18 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>2.92872537894741</v>
+        <v>3.19076070508126</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>2.92816183510715</v>
+        <v>3.12328739624109</v>
       </c>
     </row>
     <row r="39">
@@ -1105,7 +1129,7 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>2.90193040024942</v>
+        <v>2.9834707356065</v>
       </c>
     </row>
     <row r="40">
@@ -1116,7 +1140,7 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>2.8746671139132</v>
+        <v>2.97219587309094</v>
       </c>
     </row>
     <row r="41">
@@ -1127,18 +1151,18 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>2.8463578772088</v>
+        <v>2.95712195475913</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>2.74857769283646</v>
+        <v>2.95054245606262</v>
       </c>
     </row>
     <row r="43">
@@ -1149,18 +1173,18 @@
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>2.74208213419829</v>
+        <v>2.94667298368555</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>2.72582362653566</v>
+        <v>2.90227563718067</v>
       </c>
     </row>
     <row r="45">
@@ -1171,7 +1195,7 @@
         <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>2.71782922135646</v>
+        <v>2.83255810765828</v>
       </c>
     </row>
     <row r="46">
@@ -1182,7 +1206,7 @@
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>2.71627018886327</v>
+        <v>2.77947955601891</v>
       </c>
     </row>
     <row r="47">
@@ -1193,29 +1217,29 @@
         <v>51</v>
       </c>
       <c r="C47" t="n">
-        <v>2.69915392078374</v>
+        <v>2.76525619379018</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
       <c r="C48" t="n">
-        <v>2.6130453667755</v>
+        <v>2.67792919405373</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
       </c>
       <c r="C49" t="n">
-        <v>2.6130453667755</v>
+        <v>2.66832884662688</v>
       </c>
     </row>
     <row r="50">
@@ -1226,7 +1250,7 @@
         <v>54</v>
       </c>
       <c r="C50" t="n">
-        <v>2.60934886816225</v>
+        <v>2.63932894876299</v>
       </c>
     </row>
     <row r="51">
@@ -1237,18 +1261,18 @@
         <v>55</v>
       </c>
       <c r="C51" t="n">
-        <v>2.57021596780908</v>
+        <v>2.61971866723311</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
         <v>56</v>
       </c>
       <c r="C52" t="n">
-        <v>2.52347680511832</v>
+        <v>2.61711515898047</v>
       </c>
     </row>
     <row r="53">
@@ -1259,18 +1283,18 @@
         <v>57</v>
       </c>
       <c r="C53" t="n">
-        <v>2.49483572255069</v>
+        <v>2.59285046577895</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>58</v>
       </c>
       <c r="C54" t="n">
-        <v>2.46402390863168</v>
+        <v>2.59285046577895</v>
       </c>
     </row>
     <row r="55">
@@ -1281,29 +1305,29 @@
         <v>59</v>
       </c>
       <c r="C55" t="n">
-        <v>2.40582210085639</v>
+        <v>2.54864541656349</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
       </c>
       <c r="C56" t="n">
-        <v>2.3867438017332</v>
+        <v>2.53391730585626</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
       </c>
       <c r="C57" t="n">
-        <v>2.3867438017332</v>
+        <v>2.49273486983387</v>
       </c>
     </row>
     <row r="58">
@@ -1314,29 +1338,29 @@
         <v>62</v>
       </c>
       <c r="C58" t="n">
-        <v>2.34667867912689</v>
+        <v>2.48623772704624</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
       </c>
       <c r="C59" t="n">
-        <v>2.34667867912689</v>
+        <v>2.40755479425833</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
       </c>
       <c r="C60" t="n">
-        <v>2.32398262633175</v>
+        <v>2.40397904718404</v>
       </c>
     </row>
     <row r="61">
@@ -1347,29 +1371,29 @@
         <v>65</v>
       </c>
       <c r="C61" t="n">
-        <v>2.31173609225389</v>
+        <v>2.31644817575359</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
       <c r="C62" t="n">
-        <v>2.30898020292162</v>
+        <v>2.25261933488011</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
       </c>
       <c r="C63" t="n">
-        <v>2.25820973491071</v>
+        <v>2.22876405549134</v>
       </c>
     </row>
     <row r="64">
@@ -1380,29 +1404,29 @@
         <v>68</v>
       </c>
       <c r="C64" t="n">
-        <v>2.25754150684983</v>
+        <v>2.2275900433311</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65" t="n">
-        <v>2.25754150684983</v>
+        <v>2.19927694338937</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
       </c>
       <c r="C66" t="n">
-        <v>2.2009778424746</v>
+        <v>2.18981775029121</v>
       </c>
     </row>
     <row r="67">
@@ -1413,62 +1437,62 @@
         <v>71</v>
       </c>
       <c r="C67" t="n">
-        <v>2.19936754624645</v>
+        <v>2.18981775029121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
         <v>72</v>
       </c>
       <c r="C68" t="n">
-        <v>2.15365319811753</v>
+        <v>2.18981775029121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
         <v>73</v>
       </c>
       <c r="C69" t="n">
-        <v>2.03906984016014</v>
+        <v>2.1631367910199</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
         <v>74</v>
       </c>
       <c r="C70" t="n">
-        <v>1.99838475788237</v>
+        <v>2.1631367910199</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
       </c>
       <c r="C71" t="n">
-        <v>1.99689815927364</v>
+        <v>2.1631367910199</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
         <v>76</v>
       </c>
       <c r="C72" t="n">
-        <v>1.99504519522609</v>
+        <v>2.1631367910199</v>
       </c>
     </row>
     <row r="73">
@@ -1479,29 +1503,29 @@
         <v>77</v>
       </c>
       <c r="C73" t="n">
-        <v>1.93848355878312</v>
+        <v>2.15958219838296</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>78</v>
       </c>
       <c r="C74" t="n">
-        <v>1.90188018529259</v>
+        <v>2.14346690359123</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
         <v>79</v>
       </c>
       <c r="C75" t="n">
-        <v>1.90188018529259</v>
+        <v>2.11362312554803</v>
       </c>
     </row>
     <row r="76">
@@ -1512,40 +1536,40 @@
         <v>80</v>
       </c>
       <c r="C76" t="n">
-        <v>1.90145895072364</v>
+        <v>2.10291331126665</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B77" t="s">
         <v>81</v>
       </c>
       <c r="C77" t="n">
-        <v>1.90145895072364</v>
+        <v>2.08720988571286</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
         <v>82</v>
       </c>
       <c r="C78" t="n">
-        <v>1.8907196869349</v>
+        <v>2.04769357328643</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
         <v>83</v>
       </c>
       <c r="C79" t="n">
-        <v>1.83576171482903</v>
+        <v>2.00293549676462</v>
       </c>
     </row>
     <row r="80">
@@ -1556,7 +1580,7 @@
         <v>84</v>
       </c>
       <c r="C80" t="n">
-        <v>1.83576171482903</v>
+        <v>1.98549759514235</v>
       </c>
     </row>
     <row r="81">
@@ -1567,7 +1591,7 @@
         <v>85</v>
       </c>
       <c r="C81" t="n">
-        <v>1.83576171482903</v>
+        <v>1.98549759514235</v>
       </c>
     </row>
     <row r="82">
@@ -1578,73 +1602,73 @@
         <v>86</v>
       </c>
       <c r="C82" t="n">
-        <v>1.8223136136481</v>
+        <v>1.98549759514235</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
       </c>
       <c r="C83" t="n">
-        <v>1.82114324639523</v>
+        <v>1.87206173849619</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
       </c>
       <c r="C84" t="n">
-        <v>1.79956183222836</v>
+        <v>1.87206173849619</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
         <v>89</v>
       </c>
       <c r="C85" t="n">
-        <v>1.77644700727438</v>
+        <v>1.87206173849619</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
         <v>90</v>
       </c>
       <c r="C86" t="n">
-        <v>1.77644700727438</v>
+        <v>1.85008150069359</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
         <v>91</v>
       </c>
       <c r="C87" t="n">
-        <v>1.77197674783216</v>
+        <v>1.84090120552276</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
         <v>92</v>
       </c>
       <c r="C88" t="n">
-        <v>1.70647327862601</v>
+        <v>1.82894726709954</v>
       </c>
     </row>
     <row r="89">
@@ -1655,73 +1679,73 @@
         <v>93</v>
       </c>
       <c r="C89" t="n">
-        <v>1.70459588554195</v>
+        <v>1.80990758421819</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
         <v>94</v>
       </c>
       <c r="C90" t="n">
-        <v>1.69035224054291</v>
+        <v>1.7824959246718</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B91" t="s">
         <v>95</v>
       </c>
       <c r="C91" t="n">
-        <v>1.63447406843614</v>
+        <v>1.77434740624267</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
         <v>96</v>
       </c>
       <c r="C92" t="n">
-        <v>1.62497472896111</v>
+        <v>1.77434740624267</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
         <v>97</v>
       </c>
       <c r="C93" t="n">
-        <v>1.62497472896111</v>
+        <v>1.76154510348636</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B94" t="s">
         <v>98</v>
       </c>
       <c r="C94" t="n">
-        <v>1.62497472896111</v>
+        <v>1.76091202337384</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B95" t="s">
         <v>99</v>
       </c>
       <c r="C95" t="n">
-        <v>1.61539511183697</v>
+        <v>1.76091202337384</v>
       </c>
     </row>
     <row r="96">
@@ -1732,73 +1756,73 @@
         <v>100</v>
       </c>
       <c r="C96" t="n">
-        <v>1.53281285102562</v>
+        <v>1.75710548624725</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B97" t="s">
         <v>101</v>
       </c>
       <c r="C97" t="n">
-        <v>1.50874943486107</v>
+        <v>1.75710548624725</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B98" t="s">
         <v>102</v>
       </c>
       <c r="C98" t="n">
-        <v>1.5030319042054</v>
+        <v>1.73585450473249</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
         <v>103</v>
       </c>
       <c r="C99" t="n">
-        <v>1.5030319042054</v>
+        <v>1.70633339599912</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
         <v>104</v>
       </c>
       <c r="C100" t="n">
-        <v>1.45292055532432</v>
+        <v>1.69387741732697</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B101" t="s">
         <v>105</v>
       </c>
       <c r="C101" t="n">
-        <v>1.38167857590701</v>
+        <v>1.68603986255017</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B102" t="s">
         <v>106</v>
       </c>
       <c r="C102" t="n">
-        <v>1.37750161931259</v>
+        <v>1.68246767843733</v>
       </c>
     </row>
     <row r="103">
@@ -1809,18 +1833,18 @@
         <v>107</v>
       </c>
       <c r="C103" t="n">
-        <v>1.32752150208343</v>
+        <v>1.66688785050405</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
         <v>108</v>
       </c>
       <c r="C104" t="n">
-        <v>1.32507179142816</v>
+        <v>1.66359936262877</v>
       </c>
     </row>
     <row r="105">
@@ -1831,7 +1855,7 @@
         <v>109</v>
       </c>
       <c r="C105" t="n">
-        <v>1.32025662622492</v>
+        <v>1.65491942146385</v>
       </c>
     </row>
     <row r="106">
@@ -1842,18 +1866,106 @@
         <v>110</v>
       </c>
       <c r="C106" t="n">
-        <v>1.30870689724471</v>
+        <v>1.63862512568662</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s">
         <v>111</v>
       </c>
       <c r="C107" t="n">
-        <v>1.30870689724471</v>
+        <v>1.62068360732825</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.5829418082692</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.55288099293509</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.55288099293509</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.47898243882121</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.47077678880891</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.47077678880891</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.4302879236</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.4302879236</v>
       </c>
     </row>
   </sheetData>
